--- a/lms_books.xlsx
+++ b/lms_books.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -518,7 +518,7 @@
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>User_1</t>
+          <t>Issued By</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>George Owell</t>
+          <t>George Orwell</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -541,14 +541,14 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Issued</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="F2" s="7" t="n">
-        <v>44908</v>
+        <v>0</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>44910</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>

--- a/lms_books.xlsx
+++ b/lms_books.xlsx
@@ -541,17 +541,19 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0</v>
+        <v>44910</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>45272</v>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>User_1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/lms_books.xlsx
+++ b/lms_books.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -75,7 +76,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -96,6 +97,9 @@
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -523,10 +527,12 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="5">
-      <c r="A2" s="4" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B2" s="6" t="n">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>9780451524935</v>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -541,19 +547,17 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Reserved</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>44910</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>45272</v>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>User_1</t>
-        </is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lms_books.xlsx
+++ b/lms_books.xlsx
@@ -16,11 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -40,12 +39,6 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
-      <family val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -76,30 +69,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -471,94 +452,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.69" customWidth="1" style="4" min="6" max="6"/>
-    <col width="12" customWidth="1" style="4" min="7" max="7"/>
-    <col width="18.54" customWidth="1" style="4" min="8" max="8"/>
+    <col width="12.97" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.69" customWidth="1" style="2" min="6" max="6"/>
+    <col width="12" customWidth="1" style="2" min="7" max="7"/>
+    <col width="18.54" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Issued By</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="5">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1984</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>9780451524935</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>George Orwell</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>9780451524936</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>9780451524937</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/lms_books.xlsx
+++ b/lms_books.xlsx
@@ -69,7 +69,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -79,7 +79,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -452,82 +461,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.97" customWidth="1" style="2" min="3" max="3"/>
-    <col width="12.69" customWidth="1" style="2" min="6" max="6"/>
-    <col width="12" customWidth="1" style="2" min="7" max="7"/>
-    <col width="18.54" customWidth="1" style="2" min="8" max="8"/>
+    <col width="38.85" customWidth="1" style="4" min="1" max="1"/>
+    <col width="23.92" customWidth="1" style="4" min="2" max="2"/>
+    <col width="22.58" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.06" customWidth="1" style="4" min="4" max="4"/>
+    <col width="12.69" customWidth="1" style="4" min="6" max="6"/>
+    <col width="12" customWidth="1" style="4" min="7" max="7"/>
+    <col width="18.54" customWidth="1" style="4" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Issued By</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>1984</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>9780451524935</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>George Orwell</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
@@ -538,30 +550,30 @@
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>9780451524936</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>George Orwell</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Sci-Fi</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="5">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>A Tale of Two Cities</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>9781657599086</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Charls Dickens</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
@@ -572,50 +584,1847 @@
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>9780451524937</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>George Orwell</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Sci-Fi</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="3">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-    </row>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="5">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>The Little Prince</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>9789354990519</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Antoine de Saing-Exupery</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Novella</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Philoshoper’s Stone</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9781408855652</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>And Then There Were None</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>9780062073488</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Agatha Chirstie</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Mystery</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="5">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Dream of the Red Chamber</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>9781979343749</v>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cao Xueqin</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Family Saga</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="5">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>The Hobbit</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>9780547928227</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="5">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>She: A History of Adventure</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>9781519430144</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>H. Rider Haggard</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Vardi Wala Gunda</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>9789353493554</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Ved Prakash Sharma</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Detective</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="5">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>The Da Vanci Code</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>9780274808328</v>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Dan Brown</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Mystery</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="5">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Chamber of Secrets</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>9781338716535</v>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="5">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Prizoner of Azkaban</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>9781526606167</v>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="5">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Goblet of Fire</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>9780545791427</v>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="5">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Order of the Phoenix</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>9780545791434</v>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="5">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Half-Blood Prince</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>9783551354068</v>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="5">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Deathly Hallows</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>9780545010221</v>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="5">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>The Alchemist</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>9780062315007</v>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Paulo Coelho</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" s="5">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>The Catcher in the Rye</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>9780316769174</v>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>J. D. Salinger</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Coming-of-age</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="5">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>The Bridges of Madison County</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>9781455554287</v>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Robert James Walter</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="5">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Ben-Hur: A Tale of the Christ</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>9781617203404</v>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Lew Wallace</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Historical Fiction</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="5">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You Can Heal Your Life </t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>9780937611012</v>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Louise Hay</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Self-help</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="5">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>One Hundered Years of Solitude</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>9780937611012</v>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Gabriel Garcia Marquez</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Magic Realism</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1" s="5">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Lolita</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>9780679723165</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Vladimir Nabokov</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1" s="5">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Heidi</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>9781603400312</v>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Johanna Spyri</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" s="5">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Anne Of Green Gables</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>9780553213133</v>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Maud Montgomery</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1" s="5">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>The Name of the Rose</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>9780544176560</v>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Umberto Eco</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1" s="5">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Watership Down</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>9780743277709</v>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Richard Adams</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" s="5">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Charlotte’s Web</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>9780064400558</v>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>E. B. White</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" s="5">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>The Ginger Man</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>9780802144669</v>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>J. P. Donleavy</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" s="5">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Angels of the Dark</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>9780062073457</v>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Sidney Sheldon</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Murder Mystery</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" s="5">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Why I killed Gandhi</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>9788189672515</v>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Nathuram Godse</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Autobiography</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" s="5">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>The Satanic Verses</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>9780812976717</v>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Salman Rushdie</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Magic Realism</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1" s="5">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>Wings of Fire</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>9788173715488</v>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>APJ Abdul Kalam</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Autobiography</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1" s="5">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Percey Jackson:The Lightning Theif</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>9781368051477</v>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" s="5">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>Percey Jackson: The Sea of Monsters</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>9781423145509</v>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1" s="5">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>Percey Jackson: The Titan’s Curse</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>9780606021500</v>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1" s="5">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>Percey Jackson: The Battle of the Labyrinth</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>9781613831120</v>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1" s="5">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Percey Jackson: The Last Olympian</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>9781423101505</v>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1" s="5">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>The Heros Of Olympus: The Last Hero</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>9781423113393</v>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1" s="5">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>The Heros Of Olympus: The Son of Neptune</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>9781423141990</v>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1" s="5">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>The Heros Of Olympus: The Mark of Athena</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>9781423142003</v>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1" s="5">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>The Heros of Olympus: The House of Hades</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>9781423146773</v>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" s="5">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>The Heros of Olympus: The Blood of Olympus</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>9781423146780</v>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1" s="5">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>The Kane Chronicles: The Red Pyramid</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>9781423113386</v>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1" s="5">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>The Kane Chronicles: The Throne of Fire</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>9780120000388</v>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" customHeight="1" s="5">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>The Kane Chronicles: The Serpents Shadow</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>9780241391693</v>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Rick Riordan</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75" customHeight="1" s="5">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>One Indian Girl</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>9788129142146</v>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Chetan Bhagat</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="5">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>One Arranged Murder</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>9781542094139</v>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Chetan Bhagat</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Murder Mystery</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1" s="5">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>The Girl in Room 105</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>9781542040464</v>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Chetan Bhagat</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Murder Mystery</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" s="5">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>The Handmaid’s Tale</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>9780385490818</v>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Margret Atwood</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" s="5">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Crime and Punishment</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>9780679734505</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoevsky</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" s="5">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Men are from Mars, Women are from Venus</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>9780060574215</v>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>John Gray</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Self-help</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" s="5">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Rich Dad, Poor Dad</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>9781612681139</v>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Robert Kiyosaki</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Self-help</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" s="5">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>The Monk who sold his Ferrari</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>9780062515674</v>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Robin Sharma</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Self-help</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" s="5">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Paper Towns</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>9780142414934</v>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>John Green</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" s="5">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>The Fault in Our Stars</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>9781644730034</v>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>John Green</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
